--- a/HybridFramework/target/classes/com/hybridFramework/data/Testsuite.xlsx
+++ b/HybridFramework/target/classes/com/hybridFramework/data/Testsuite.xlsx
@@ -8,45 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
-    <sheet name="TC01" sheetId="2" r:id="rId2"/>
-    <sheet name="TC02" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
-  <si>
-    <t>TSID</t>
-  </si>
-  <si>
-    <t>TS01</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Action_Keyword</t>
-  </si>
-  <si>
-    <t>TS02</t>
-  </si>
-  <si>
-    <t>TS03</t>
-  </si>
-  <si>
-    <t>Open the browser</t>
-  </si>
-  <si>
-    <t>Navigate to the URL</t>
-  </si>
-  <si>
-    <t>openBrowser</t>
-  </si>
-  <si>
-    <t>navigate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TCID</t>
   </si>
@@ -60,72 +28,26 @@
     <t>LoginTest</t>
   </si>
   <si>
-    <t>LocatorType</t>
-  </si>
-  <si>
-    <t>LocatorValue</t>
-  </si>
-  <si>
-    <t>Enter Email id</t>
-  </si>
-  <si>
-    <t>sendkeys</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>TestData</t>
-  </si>
-  <si>
-    <t>//input[contains(@id,'email')]</t>
-  </si>
-  <si>
     <t>TC02</t>
   </si>
   <si>
-    <t>TS04</t>
-  </si>
-  <si>
-    <t>Enter Password</t>
-  </si>
-  <si>
-    <t>//input[contains(@id,'pass')]</t>
-  </si>
-  <si>
-    <t>flatmates</t>
-  </si>
-  <si>
-    <t>sneha.garg369</t>
-  </si>
-  <si>
-    <t>SearchPeople</t>
+    <t>SearchpeopleTest</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>VerifyHomeLink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,22 +70,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,11 +379,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -480,248 +391,37 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="surbhiagarwal369@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="surbhiagarwal369@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>